--- a/Time sheet.xlsx
+++ b/Time sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Thijs\Programming\Important_Projects\SteeringWheel\SteeringWheel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA1B89-8E6D-4923-AA14-EBB4E231BA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6C3B4E-D1BB-4F3A-A4E2-098B31FDD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Made a schematic for a not gate</t>
+  </si>
+  <si>
+    <t>Researched USB workings</t>
+  </si>
+  <si>
+    <t>2 hours</t>
   </si>
 </sst>
 </file>
@@ -364,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +427,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
